--- a/Scripts/comparison.xlsx
+++ b/Scripts/comparison.xlsx
@@ -4,82 +4,106 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="9555" windowHeight="7485"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="9555" windowHeight="7485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>telstra.com.au</t>
+  </si>
+  <si>
+    <t>telekom.com</t>
+  </si>
+  <si>
+    <t>bbc.co.uk</t>
+  </si>
+  <si>
+    <t>youtube.com</t>
+  </si>
+  <si>
+    <t>folha.uol.com.br</t>
+  </si>
+  <si>
+    <t>kinopoisk.ru</t>
+  </si>
+  <si>
+    <t>mobile.de</t>
+  </si>
+  <si>
+    <t>cpf.gov.sg</t>
+  </si>
   <si>
     <t>instagram.com</t>
   </si>
   <si>
-    <t>telstra.com.au</t>
-  </si>
-  <si>
-    <t>telekom.com</t>
-  </si>
-  <si>
-    <t>cpf.gov.sg</t>
-  </si>
-  <si>
-    <t>yadi.sk</t>
-  </si>
-  <si>
-    <t>tvn-2.com</t>
-  </si>
-  <si>
-    <t>youtube.com</t>
-  </si>
-  <si>
-    <t>1und1.de</t>
+    <t>facebook.com</t>
+  </si>
+  <si>
+    <t>gfycat.com</t>
+  </si>
+  <si>
+    <t>blogspot.com</t>
+  </si>
+  <si>
+    <t>chip.de</t>
+  </si>
+  <si>
+    <t>blogger.com</t>
+  </si>
+  <si>
+    <t>yahoo.com</t>
+  </si>
+  <si>
+    <t>wikia.com</t>
+  </si>
+  <si>
+    <t>smh.com.au</t>
+  </si>
+  <si>
+    <t>wikipedia.org</t>
+  </si>
+  <si>
+    <t>theage.com.au</t>
+  </si>
+  <si>
+    <t>focus.de</t>
+  </si>
+  <si>
+    <t>netflix.com</t>
+  </si>
+  <si>
+    <t>gmail.com</t>
+  </si>
+  <si>
+    <t>office.com</t>
+  </si>
+  <si>
+    <t>yandex.ru</t>
   </si>
   <si>
     <t>pandora.com</t>
   </si>
   <si>
-    <t>youm7.com</t>
-  </si>
-  <si>
-    <t>baixaki.com.br</t>
-  </si>
-  <si>
-    <t>wikipedia.org</t>
-  </si>
-  <si>
-    <t>critica.com.pa</t>
-  </si>
-  <si>
-    <t>minfin.com.ua</t>
-  </si>
-  <si>
-    <t>txxx.com</t>
-  </si>
-  <si>
-    <t>kinogo.net</t>
-  </si>
-  <si>
-    <t>smh.com.au</t>
-  </si>
-  <si>
-    <t>theage.com.au</t>
-  </si>
-  <si>
-    <t>adf.ly</t>
-  </si>
-  <si>
-    <t>gfycat.com</t>
-  </si>
-  <si>
-    <t>cnn.com</t>
+    <t>sabq.org</t>
+  </si>
+  <si>
+    <t>diply.com</t>
   </si>
   <si>
     <t>google.com</t>
+  </si>
+  <si>
+    <t>ebay-***.de</t>
   </si>
 </sst>
 </file>
@@ -642,12 +666,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>IPv4 vs. IPv6 Speed</a:t>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Site-by-Site Throughput</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Comparison (1/3)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -670,149 +699,77 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>comparison!$A$1:$A$22</c:f>
+              <c:f>comparison!$A$1:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>telstra.com.au</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>telekom.com</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bbc.co.uk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>youtube.com</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>folha.uol.com.br</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>kinopoisk.ru</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mobile.de</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>cpf.gov.sg</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>instagram.com</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>telstra.com.au</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>telekom.com</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>cpf.gov.sg</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>yadi.sk</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>tvn-2.com</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>youtube.com</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1und1.de</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>pandora.com</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>youm7.com</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>baixaki.com.br</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>wikipedia.org</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>critica.com.pa</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>minfin.com.ua</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>txxx.com</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>kinogo.net</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>smh.com.au</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>theage.com.au</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>adf.ly</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>gfycat.com</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>cnn.com</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>google.com</c:v>
+                  <c:v>facebook.com</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>comparison!$B$1:$B$22</c:f>
+              <c:f>comparison!$B$1:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.1331689376899998</c:v>
+                  <c:v>1.4639026773299999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.86011001412</c:v>
+                  <c:v>1.7582533427</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.95321371792</c:v>
+                  <c:v>2.11628313743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9202362936699999</c:v>
+                  <c:v>3.27948835715</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.79194362491</c:v>
+                  <c:v>4.1918543545100002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4633678883600001</c:v>
+                  <c:v>5.50012822335</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4200926601899999</c:v>
+                  <c:v>5.0914084741999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7806069578099999</c:v>
+                  <c:v>13.6681441519</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.063720459000001</c:v>
+                  <c:v>11.5386359524</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.903894533600003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>29.631430612399999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>67.161277124700007</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28.3552675366</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>80.048829929600004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>97.058575115400004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30.118691251400001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14.9288698346</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14.460218304</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>176.69899313299999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>193.50243477000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>328.55614973299998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>630.97859281199999</c:v>
+                  <c:v>7.3172042572900002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,149 +784,77 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>comparison!$A$1:$A$22</c:f>
+              <c:f>comparison!$A$1:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>telstra.com.au</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>telekom.com</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bbc.co.uk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>youtube.com</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>folha.uol.com.br</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>kinopoisk.ru</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mobile.de</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>cpf.gov.sg</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>instagram.com</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>telstra.com.au</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>telekom.com</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>cpf.gov.sg</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>yadi.sk</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>tvn-2.com</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>youtube.com</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1und1.de</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>pandora.com</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>youm7.com</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>baixaki.com.br</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>wikipedia.org</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>critica.com.pa</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>minfin.com.ua</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>txxx.com</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>kinogo.net</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>smh.com.au</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>theage.com.au</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>adf.ly</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>gfycat.com</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>cnn.com</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>google.com</c:v>
+                  <c:v>facebook.com</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>comparison!$C$1:$C$22</c:f>
+              <c:f>comparison!$C$1:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.65023857297700005</c:v>
+                  <c:v>1.76238057321</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5684051154400001</c:v>
+                  <c:v>1.7821413906900001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2127305880399999</c:v>
+                  <c:v>2.0294528490300001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2318008060699999</c:v>
+                  <c:v>3.2841102370100002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.44652105737</c:v>
+                  <c:v>4.2074649702600002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.45520767465</c:v>
+                  <c:v>5.0916304958999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4088493686100003</c:v>
+                  <c:v>5.1634544731399998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.2281627838600002</c:v>
+                  <c:v>5.4769835349499996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.3270444688</c:v>
+                  <c:v>7.1427730901200004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.592020031600001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>47.529967640199999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>74.077729963300001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>79.130161000900003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>84.602555528600007</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>100.893260711</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>132.311952007</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>171.46576651800001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>171.47018014099999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>174.69060679099999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>181.98361041699999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>401.78746594</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>676.84998709000001</c:v>
+                  <c:v>8.6694939936900006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,11 +869,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="84366464"/>
-        <c:axId val="84368000"/>
+        <c:axId val="117383168"/>
+        <c:axId val="117384704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84366464"/>
+        <c:axId val="117383168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,7 +901,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84368000"/>
+        <c:crossAx val="117384704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1024,7 +909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84368000"/>
+        <c:axId val="117384704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1054,7 +939,622 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84366464"/>
+        <c:crossAx val="117383168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Site-by-Site Throughput Comparison (2/3)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IPv4</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison!$A$11:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>gfycat.com</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>blogspot.com</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>chip.de</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>blogger.com</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>yahoo.com</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>wikia.com</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>smh.com.au</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>wikipedia.org</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>theage.com.au</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>focus.de</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>netflix.com</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ebay-***.de</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$B$11:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32.109578129699997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.567009695399999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.3269240838</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.6587559106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.5779483757</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.850535293299998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.203963623200003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.0998915855</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.626693212500001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.718531232299998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.639730116000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58.668723143599998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>IPv6</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison!$A$11:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>gfycat.com</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>blogspot.com</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>chip.de</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>blogger.com</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>yahoo.com</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>wikia.com</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>smh.com.au</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>wikipedia.org</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>theage.com.au</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>focus.de</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>netflix.com</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ebay-***.de</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$C$11:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10.320393709999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.632352577500001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.117202280299999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.682275858299999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.8837162132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.826571070300002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.054054590500002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.423680709999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.394069703900001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.7409818175</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.0899422725</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41.396750419999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="117741824"/>
+        <c:axId val="117747712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="117741824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Website</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117747712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="117747712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Kb/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117741824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Site-by-Site</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Throughput Comparison (3/3)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IPv4</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison!$A$23:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>gmail.com</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>office.com</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>yandex.ru</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pandora.com</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sabq.org</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>diply.com</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>google.com</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$B$23:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>92.227074235800004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.984064894400007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>392.63968979399999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3555.76896511</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3466.5065980700001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1158.06716951</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6295.4598070700004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>IPv6</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison!$A$23:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>gmail.com</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>office.com</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>yandex.ru</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pandora.com</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sabq.org</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>diply.com</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>google.com</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison!$C$23:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>93.197807653200002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>114.2171938</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>424.47045844899998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1117.6969552600001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1373.38854483</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1388.1951219499999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2321.2813110400002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="117760768"/>
+        <c:axId val="117762304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="117760768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Website</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117762304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="117762304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Kb/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117760768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1080,16 +1580,86 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>512762</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>48577</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1398,23 +1968,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2.1331689376899998</v>
+        <v>1.4639026773299999</v>
       </c>
       <c r="C1">
-        <v>0.65023857297700005</v>
+        <v>1.76238057321</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1422,10 +1995,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.86011001412</v>
+        <v>1.7582533427</v>
       </c>
       <c r="C2">
-        <v>1.5684051154400001</v>
+        <v>1.7821413906900001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1433,10 +2006,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.95321371792</v>
+        <v>2.11628313743</v>
       </c>
       <c r="C3">
-        <v>2.2127305880399999</v>
+        <v>2.0294528490300001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1444,10 +2017,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3.9202362936699999</v>
+        <v>3.27948835715</v>
       </c>
       <c r="C4">
-        <v>2.2318008060699999</v>
+        <v>3.2841102370100002</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1455,10 +2028,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.79194362491</v>
+        <v>4.1918543545100002</v>
       </c>
       <c r="C5">
-        <v>3.44652105737</v>
+        <v>4.2074649702600002</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1466,10 +2039,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.4633678883600001</v>
+        <v>5.50012822335</v>
       </c>
       <c r="C6">
-        <v>3.45520767465</v>
+        <v>5.0916304958999996</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1477,10 +2050,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4.4200926601899999</v>
+        <v>5.0914084741999996</v>
       </c>
       <c r="C7">
-        <v>4.4088493686100003</v>
+        <v>5.1634544731399998</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1488,10 +2061,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5.7806069578099999</v>
+        <v>13.6681441519</v>
       </c>
       <c r="C8">
-        <v>8.2281627838600002</v>
+        <v>5.4769835349499996</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1499,10 +2072,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>11.063720459000001</v>
+        <v>11.5386359524</v>
       </c>
       <c r="C9">
-        <v>12.3270444688</v>
+        <v>7.1427730901200004</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1510,10 +2083,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>63.903894533600003</v>
+        <v>7.3172042572900002</v>
       </c>
       <c r="C10">
-        <v>44.592020031600001</v>
+        <v>8.6694939936900006</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1521,10 +2094,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>29.631430612399999</v>
+        <v>32.109578129699997</v>
       </c>
       <c r="C11">
-        <v>47.529967640199999</v>
+        <v>10.320393709999999</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1532,10 +2105,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>67.161277124700007</v>
+        <v>13.567009695399999</v>
       </c>
       <c r="C12">
-        <v>74.077729963300001</v>
+        <v>13.632352577500001</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1543,10 +2116,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>28.3552675366</v>
+        <v>11.3269240838</v>
       </c>
       <c r="C13">
-        <v>79.130161000900003</v>
+        <v>16.117202280299999</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1554,10 +2127,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>80.048829929600004</v>
+        <v>13.6587559106</v>
       </c>
       <c r="C14">
-        <v>84.602555528600007</v>
+        <v>16.682275858299999</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1565,10 +2138,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>97.058575115400004</v>
+        <v>25.5779483757</v>
       </c>
       <c r="C15">
-        <v>100.893260711</v>
+        <v>18.8837162132</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1576,10 +2149,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>30.118691251400001</v>
+        <v>44.850535293299998</v>
       </c>
       <c r="C16">
-        <v>132.311952007</v>
+        <v>19.826571070300002</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1587,10 +2160,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>14.9288698346</v>
+        <v>44.203963623200003</v>
       </c>
       <c r="C17">
-        <v>171.46576651800001</v>
+        <v>20.054054590500002</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1598,10 +2171,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>14.460218304</v>
+        <v>21.0998915855</v>
       </c>
       <c r="C18">
-        <v>171.47018014099999</v>
+        <v>22.423680709999999</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1609,10 +2182,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>176.69899313299999</v>
+        <v>44.626693212500001</v>
       </c>
       <c r="C19">
-        <v>174.69060679099999</v>
+        <v>23.394069703900001</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1620,10 +2193,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>193.50243477000001</v>
+        <v>24.718531232299998</v>
       </c>
       <c r="C20">
-        <v>181.98361041699999</v>
+        <v>26.7409818175</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1631,24 +2204,145 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>328.55614973299998</v>
+        <v>34.639730116000003</v>
       </c>
       <c r="C21">
-        <v>401.78746594</v>
+        <v>30.0899422725</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>58.668723143599998</v>
+      </c>
+      <c r="C22">
+        <v>41.396750419999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>630.97859281199999</v>
-      </c>
-      <c r="C22">
-        <v>676.84998709000001</v>
+      <c r="B23">
+        <v>92.227074235800004</v>
+      </c>
+      <c r="C23">
+        <v>93.197807653200002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>74.984064894400007</v>
+      </c>
+      <c r="C24">
+        <v>114.2171938</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>392.63968979399999</v>
+      </c>
+      <c r="C25">
+        <v>424.47045844899998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>3555.76896511</v>
+      </c>
+      <c r="C26">
+        <v>1117.6969552600001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>3466.5065980700001</v>
+      </c>
+      <c r="C27">
+        <v>1373.38854483</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1158.06716951</v>
+      </c>
+      <c r="C28">
+        <v>1388.1951219499999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>6295.4598070700004</v>
+      </c>
+      <c r="C29">
+        <v>2321.2813110400002</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
